--- a/excel-files/image/failed_urls.xlsx
+++ b/excel-files/image/failed_urls.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>M-P6-C33</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://static.wixstatic.com/media/0a81fd_df69e6d68f404ae950cc29f08d2b4fd~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_df69e6d68f404ae9850cc2908d2b4fd~mv2.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>URL válida, pero no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel-files/image/failed_urls.xlsx
+++ b/excel-files/image/failed_urls.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,49 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Comentario</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M-P6-C33</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_df69e6d68f404ae950cc29f08d2b4fd~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_df69e6d68f404ae9850cc2908d2b4fd~mv2.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>URL válida, pero no se puede descargar con este programa sino de forma manual.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel-files/image/failed_urls.xlsx
+++ b/excel-files/image/failed_urls.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22460397</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-58948.jpg?87&amp;time=1714766923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22469687</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-49926.jpg?87&amp;time=1714766947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel-files/image/failed_urls.xlsx
+++ b/excel-files/image/failed_urls.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,62 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Comentario</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>22460397</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-58948.jpg?87&amp;time=1714766923</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22469687</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-49926.jpg?87&amp;time=1714766947</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel-files/image/failed_urls.xlsx
+++ b/excel-files/image/failed_urls.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1664 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2590328</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056848/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2590328</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056848/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2590328</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056848/imagen3-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PMP20000086644</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086644/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PMP20000086644</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086644/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PMP20000086644</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086644/imagen3-1.webp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PMP20000086644</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086644/imagen4-1.webp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PMP20000297471</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000297471/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PMP20000297471</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000297471/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2590340</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056871/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PMP20000086641</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086641/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PMP20000086641</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086641/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PMP20000086641</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000086641/imagen3-1.webp</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PMP20000251205</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000251205/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3759955</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000378445/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3759955</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000378445/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2734440</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000087505/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PMP20000219417</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000219417/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PMP20000219417</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000219417/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PMP20000053857</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053857/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PMP20000053857</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053857/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PMP20000053857</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053857/imagen3-1.webp</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PMP20000347079</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000347079/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PMP20000347079</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000347079/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PMP20000380699</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000380699/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PMP20000380699</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000380699/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PMP20000056750</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056750/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3462109</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286867/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2590438</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056979/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2590438</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056979/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3462104</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286857/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3462104</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286857/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PMP20000053802</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053802/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PMP20000053802</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053802/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PMP20000053802</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053802/imagen3-1.webp</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PMP20000053802</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053802/imagen4-1.webp</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PMP20000093530</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000093530/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PMP20000219415</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000219415/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PMP20000334652</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000334652/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PMP20000334652</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000334652/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PMP20000334652</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000334652/imagen3-1.webp</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PMP20000376401</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000376401/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PMP20000376401</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000376401/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PMP20000258501</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000258501/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PMP20000258501</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000258501/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PMP20000081488</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081488/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PMP20000081488</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081488/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PMP20000081547</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081547/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PMP20000081547</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081547/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PMP20000380652</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000380652/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PMP20000355198</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000355198/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PMP20000322230</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000322230/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2704229</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081512/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2704229</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081512/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PMP20000352714</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000352714/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PMP20000053856</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053856/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PMP20000053856</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000053856/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3316176</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000251570/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3316176</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000251570/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PMP20000347242</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000347242/full_image-1.png</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PMP20000347242</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000347242/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PMP20000363609</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000363609/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PMP20000363609</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000363609/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PMP20000081530</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081530/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PMP20000081530</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081530/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2707802</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081268/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2707802</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081268/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3342244</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000258512/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PMP20000266975</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000266975/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PMP20000251193</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000251193/full_image-1.png</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PMP20000054673</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000054673/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2590439</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056987/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PMP20000355237</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000355237/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2590341</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056859/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2590341</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056859/imagen2-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2590341</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056859/imagen3-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PMP20000286905</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286905/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PMP20000266996</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000266996/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PMP20000287236</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000287236/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2590444</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056983/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2590444</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000056983/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3669639</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000345552/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PMP20000081468</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081468/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PMP20000081468</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081468/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PMP20000081468</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000081468/imagen3-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PMP20000356149</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000356149/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PMP20000127982</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000127982/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3462110</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286851/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3462110</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000286851/imagen2-1.png</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2753239</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000092713/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2753239</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000092713/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2753239</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000092713/imagen3-1.png</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PMP20000345478</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000345478/full_image-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PMP20000337644</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000337644/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2745423</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000090441/full_image-1.webp</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2745423</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3999/PMP20000090441/imagen2-1.webp</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>La URL no existe o no se puede descargar con este programa sino de forma manual.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>